--- a/stock_predictor_ai/data/cleaned/TSLA.xlsx
+++ b/stock_predictor_ai/data/cleaned/TSLA.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3772"/>
+  <dimension ref="A1:F3773"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75889,6 +75889,26 @@
         <v>16462043</v>
       </c>
     </row>
+    <row r="3773">
+      <c r="A3773" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B3773" t="n">
+        <v>297.4200134277344</v>
+      </c>
+      <c r="C3773" t="n">
+        <v>300.1499938964844</v>
+      </c>
+      <c r="D3773" t="n">
+        <v>296.1300048828125</v>
+      </c>
+      <c r="E3773" t="n">
+        <v>297.6050109863281</v>
+      </c>
+      <c r="F3773" t="n">
+        <v>12130954</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/TSLA.xlsx
+++ b/stock_predictor_ai/data/cleaned/TSLA.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3773"/>
+  <dimension ref="A1:F3774"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75909,6 +75909,26 @@
         <v>12130954</v>
       </c>
     </row>
+    <row r="3774">
+      <c r="A3774" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B3774" t="n">
+        <v>310.7799987792969</v>
+      </c>
+      <c r="C3774" t="n">
+        <v>321.2000122070312</v>
+      </c>
+      <c r="D3774" t="n">
+        <v>310.5</v>
+      </c>
+      <c r="E3774" t="n">
+        <v>319.6799926757812</v>
+      </c>
+      <c r="F3774" t="n">
+        <v>77099800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/TSLA.xlsx
+++ b/stock_predictor_ai/data/cleaned/TSLA.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3774"/>
+  <dimension ref="A1:F3775"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75929,6 +75929,26 @@
         <v>77099800</v>
       </c>
     </row>
+    <row r="3775">
+      <c r="A3775" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B3775" t="n">
+        <v>330.9700012207031</v>
+      </c>
+      <c r="C3775" t="n">
+        <v>338</v>
+      </c>
+      <c r="D3775" t="n">
+        <v>328.5</v>
+      </c>
+      <c r="E3775" t="n">
+        <v>334.3599853515625</v>
+      </c>
+      <c r="F3775" t="n">
+        <v>24563121</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/TSLA.xlsx
+++ b/stock_predictor_ai/data/cleaned/TSLA.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3775"/>
+  <dimension ref="A1:F3776"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75949,6 +75949,26 @@
         <v>24563121</v>
       </c>
     </row>
+    <row r="3776">
+      <c r="A3776" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B3776" t="n">
+        <v>330.1499938964844</v>
+      </c>
+      <c r="C3776" t="n">
+        <v>333.3283996582031</v>
+      </c>
+      <c r="D3776" t="n">
+        <v>325.6000061035156</v>
+      </c>
+      <c r="E3776" t="n">
+        <v>328.2300109863281</v>
+      </c>
+      <c r="F3776" t="n">
+        <v>40216131</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/TSLA.xlsx
+++ b/stock_predictor_ai/data/cleaned/TSLA.xlsx
@@ -63,7 +63,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3776"/>
+  <dimension ref="A1:F3771"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75869,106 +75871,6 @@
         <v>114116900</v>
       </c>
     </row>
-    <row r="3772">
-      <c r="A3772" s="2" t="n">
-        <v>45841</v>
-      </c>
-      <c r="B3772" t="n">
-        <v>315.9299926757812</v>
-      </c>
-      <c r="C3772" t="n">
-        <v>318</v>
-      </c>
-      <c r="D3772" t="n">
-        <v>314.0000915527344</v>
-      </c>
-      <c r="E3772" t="n">
-        <v>317.9500122070312</v>
-      </c>
-      <c r="F3772" t="n">
-        <v>16462043</v>
-      </c>
-    </row>
-    <row r="3773">
-      <c r="A3773" s="2" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B3773" t="n">
-        <v>297.4200134277344</v>
-      </c>
-      <c r="C3773" t="n">
-        <v>300.1499938964844</v>
-      </c>
-      <c r="D3773" t="n">
-        <v>296.1300048828125</v>
-      </c>
-      <c r="E3773" t="n">
-        <v>297.6050109863281</v>
-      </c>
-      <c r="F3773" t="n">
-        <v>12130954</v>
-      </c>
-    </row>
-    <row r="3774">
-      <c r="A3774" s="2" t="n">
-        <v>45853</v>
-      </c>
-      <c r="B3774" t="n">
-        <v>310.7799987792969</v>
-      </c>
-      <c r="C3774" t="n">
-        <v>321.2000122070312</v>
-      </c>
-      <c r="D3774" t="n">
-        <v>310.5</v>
-      </c>
-      <c r="E3774" t="n">
-        <v>319.6799926757812</v>
-      </c>
-      <c r="F3774" t="n">
-        <v>77099800</v>
-      </c>
-    </row>
-    <row r="3775">
-      <c r="A3775" s="2" t="n">
-        <v>45859</v>
-      </c>
-      <c r="B3775" t="n">
-        <v>330.9700012207031</v>
-      </c>
-      <c r="C3775" t="n">
-        <v>338</v>
-      </c>
-      <c r="D3775" t="n">
-        <v>328.5</v>
-      </c>
-      <c r="E3775" t="n">
-        <v>334.3599853515625</v>
-      </c>
-      <c r="F3775" t="n">
-        <v>24563121</v>
-      </c>
-    </row>
-    <row r="3776">
-      <c r="A3776" s="2" t="n">
-        <v>45902</v>
-      </c>
-      <c r="B3776" t="n">
-        <v>330.1499938964844</v>
-      </c>
-      <c r="C3776" t="n">
-        <v>333.3283996582031</v>
-      </c>
-      <c r="D3776" t="n">
-        <v>325.6000061035156</v>
-      </c>
-      <c r="E3776" t="n">
-        <v>328.2300109863281</v>
-      </c>
-      <c r="F3776" t="n">
-        <v>40216131</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
